--- a/vocab_lite.xlsx
+++ b/vocab_lite.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="540" windowWidth="33520" windowHeight="23240"/>
+    <workbookView xWindow="7540" yWindow="540" windowWidth="39480" windowHeight="23240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Preferred</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Alpha BHC</t>
+  </si>
+  <si>
+    <t>A-BHC</t>
+  </si>
+  <si>
+    <t>B-BHC</t>
+  </si>
+  <si>
+    <t>D-BHC</t>
   </si>
 </sst>
 </file>
@@ -537,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +557,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -614,6 +623,9 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
@@ -637,6 +649,9 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
@@ -660,6 +675,9 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
@@ -702,7 +720,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H7">
     <sortState ref="A2:H7">
       <sortCondition ref="A1:A7"/>
     </sortState>
